--- a/medicine/Pharmacie/Luu_Si_Nang/Luu_Si_Nang.xlsx
+++ b/medicine/Pharmacie/Luu_Si_Nang/Luu_Si_Nang.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Luu Si Nang, né le 15 avril 1930 à Canton en Chine et mort le 29 novembre 2019 à Riom[1], est un chercheur français en pharmaceutique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Luu Si Nang, né le 15 avril 1930 à Canton en Chine et mort le 29 novembre 2019 à Riom, est un chercheur français en pharmaceutique.
 Il a contribué au développement de médicaments pour l'industrie pharmaceutique.
 </t>
         </is>
@@ -512,11 +524,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sinang Luu (刘士能) est le petit-fils du mandarin Liu Biao, né le cinquième jour du premier mois de l'année de la souris (1863), cinquième lauréat de l'examen impérial de mandarinat et fils du mandarin Liu Ying Biao (刘應彪).
-Arrivé en France en 1950, il est ingénieur diplômé[2] de l'École nationale supérieure d'agronomie et des industries alimentaires (ENSAIA), France et du Massachusetts Institute of Technology (M.I.T.) aux États-Unis. Chercheur en développement pharmaceutique, il a fait sa carrière en France dans différents laboratoires pharmaceutiques. Contributeur du Drugs And The Pharmaceutical Sciences (CRC Press) de New York, il a publié de nombreux résultats de recherches en anglais et français. Ses travaux ont permis le développement de molécules et de médicaments principalement pour les laboratoires du Centre européen de recherches Mauvernay (CERM) puis d'AkzoNobel à partir de 1976.
-Sinang Luu est calligraphe, ses œuvres ont été présentées au Musée Mandet de Riom du 22 octobre au 25 novembre 2005. Avec l'accord exclusif des descendants de l'écrivain Ai Wu (de) (艾芜), il a traduit et publié les nouvelles Souvenirs du Voyage d'Ai Wu en 2009 aux Éditions Cultures et Techniques[3].
+Arrivé en France en 1950, il est ingénieur diplômé de l'École nationale supérieure d'agronomie et des industries alimentaires (ENSAIA), France et du Massachusetts Institute of Technology (M.I.T.) aux États-Unis. Chercheur en développement pharmaceutique, il a fait sa carrière en France dans différents laboratoires pharmaceutiques. Contributeur du Drugs And The Pharmaceutical Sciences (CRC Press) de New York, il a publié de nombreux résultats de recherches en anglais et français. Ses travaux ont permis le développement de molécules et de médicaments principalement pour les laboratoires du Centre européen de recherches Mauvernay (CERM) puis d'AkzoNobel à partir de 1976.
+Sinang Luu est calligraphe, ses œuvres ont été présentées au Musée Mandet de Riom du 22 octobre au 25 novembre 2005. Avec l'accord exclusif des descendants de l'écrivain Ai Wu (de) (艾芜), il a traduit et publié les nouvelles Souvenirs du Voyage d'Ai Wu en 2009 aux Éditions Cultures et Techniques.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) L. Si-Nang, J. Simond, V. Schiff et D. Trottier, « Formation of a complex between the analgesic, 6-benzoyl-benzoxazolidinone (CERM 10194), and beta-cyclodextrin », Pharmaceutica Acta Helvetiae, vol. 60, no 4,‎ 1985, p. 112–116 (ISSN 0031-6865, PMID 4011622, lire en ligne, consulté le 24 avril 2018)
 (en) D. Trottier, G. Chastaing, D. Chatonier et A. Pourrat, « Polymorphism of the analgesic 6-benzoylbenzoxazolidinone (CERM 10194) », Pharmaceutica Acta Helvetiae, vol. 59, no 11,‎ 1984, p. 293–297 (ISSN 0031-6865, PMID 6514758, lire en ligne, consulté le 24 avril 2018)
